--- a/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_9_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.95148147295303</v>
+        <v>93.3595600848156</v>
       </c>
       <c r="D2" t="n">
-        <v>11.24338665987587</v>
+        <v>12.78767852078411</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.48754385707076</v>
+        <v>91.96387100724387</v>
       </c>
       <c r="D3" t="n">
-        <v>12.07824642475057</v>
+        <v>11.86395609921</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>89.3173350836968</v>
+        <v>89.86757382920339</v>
       </c>
       <c r="D4" t="n">
-        <v>11.31772184360061</v>
+        <v>11.78404556205707</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.93719261168172</v>
+        <v>88.20371561591168</v>
       </c>
       <c r="D5" t="n">
-        <v>11.97723939034731</v>
+        <v>11.41117047183996</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.24375711581635</v>
+        <v>90.49628687426747</v>
       </c>
       <c r="D6" t="n">
-        <v>11.47626019800047</v>
+        <v>12.20408978216876</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>86.11986588090711</v>
+        <v>86.67679997774674</v>
       </c>
       <c r="D7" t="n">
-        <v>11.53141467071715</v>
+        <v>10.0078194660824</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.8736728770598</v>
+        <v>88.33971845188475</v>
       </c>
       <c r="D8" t="n">
-        <v>12.00631265353152</v>
+        <v>10.77536728889182</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.53846368857545</v>
+        <v>82.94519889821889</v>
       </c>
       <c r="D9" t="n">
-        <v>10.95486705281377</v>
+        <v>10.80088588622189</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.55508521345024</v>
+        <v>85.05178392431728</v>
       </c>
       <c r="D10" t="n">
-        <v>11.93625345707091</v>
+        <v>11.73349743872988</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>83.49545478590376</v>
+        <v>83.70370947767225</v>
       </c>
       <c r="D11" t="n">
-        <v>11.45346390437557</v>
+        <v>11.12593727244613</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.27578974747783</v>
+        <v>80.81924422387573</v>
       </c>
       <c r="D12" t="n">
-        <v>12.93384371161898</v>
+        <v>10.49334402056451</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.27143276633727</v>
+        <v>82.81700880947623</v>
       </c>
       <c r="D13" t="n">
-        <v>12.05826944859595</v>
+        <v>10.4202150096467</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.29343992562028</v>
+        <v>78.68459949303424</v>
       </c>
       <c r="D14" t="n">
-        <v>10.775663409638</v>
+        <v>11.05100497515613</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.36107325635801</v>
+        <v>76.62253435376969</v>
       </c>
       <c r="D15" t="n">
-        <v>12.31587245683592</v>
+        <v>10.68538087553527</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.70660668763141</v>
+        <v>78.06634905218097</v>
       </c>
       <c r="D16" t="n">
-        <v>12.66043349325559</v>
+        <v>11.82987782897373</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.38848666236866</v>
+        <v>75.42745524002497</v>
       </c>
       <c r="D17" t="n">
-        <v>11.40485384502114</v>
+        <v>12.98426854283438</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.10225527347174</v>
+        <v>75.69212623724033</v>
       </c>
       <c r="D18" t="n">
-        <v>12.18233804011263</v>
+        <v>12.50907058720622</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.51930107991207</v>
+        <v>74.9325477918369</v>
       </c>
       <c r="D19" t="n">
-        <v>10.43478083107938</v>
+        <v>11.19023221807011</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.39264900481325</v>
+        <v>75.40709866393898</v>
       </c>
       <c r="D20" t="n">
-        <v>11.4726535642031</v>
+        <v>11.71854917729728</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.92104189788004</v>
+        <v>71.63640269109624</v>
       </c>
       <c r="D21" t="n">
-        <v>12.11651837354311</v>
+        <v>10.65807938740841</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.35314087926446</v>
+        <v>70.43999641244056</v>
       </c>
       <c r="D22" t="n">
-        <v>10.69641631813774</v>
+        <v>11.67987498056833</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.30761706073774</v>
+        <v>71.67691558266793</v>
       </c>
       <c r="D23" t="n">
-        <v>11.62628213704234</v>
+        <v>10.13483870955518</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.15541303492131</v>
+        <v>69.31790394897428</v>
       </c>
       <c r="D24" t="n">
-        <v>12.14364501361666</v>
+        <v>11.39198967071039</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.26856371023439</v>
+        <v>70.27970409741711</v>
       </c>
       <c r="D25" t="n">
-        <v>11.14119313598787</v>
+        <v>8.896867801259875</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.08876216317593</v>
+        <v>66.77833911979093</v>
       </c>
       <c r="D26" t="n">
-        <v>12.04165617012088</v>
+        <v>10.34997951436741</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.52004669201418</v>
+        <v>66.26573826494734</v>
       </c>
       <c r="D27" t="n">
-        <v>10.61313221162234</v>
+        <v>11.63936535054426</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.37988053235185</v>
+        <v>64.71923635011069</v>
       </c>
       <c r="D28" t="n">
-        <v>9.667156439473317</v>
+        <v>10.64682761244334</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.57943322132177</v>
+        <v>68.24145742457254</v>
       </c>
       <c r="D29" t="n">
-        <v>10.47512138692855</v>
+        <v>11.8957419257968</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.12021113879176</v>
+        <v>65.1057220619097</v>
       </c>
       <c r="D30" t="n">
-        <v>11.39391299718012</v>
+        <v>11.4533410198004</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.93892804691563</v>
+        <v>62.61968507081926</v>
       </c>
       <c r="D31" t="n">
-        <v>12.13724595223498</v>
+        <v>10.88843565517566</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.53822756261262</v>
+        <v>58.72679599583493</v>
       </c>
       <c r="D32" t="n">
-        <v>11.2331092646064</v>
+        <v>11.90697057028309</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.70897439899667</v>
+        <v>60.10592292202041</v>
       </c>
       <c r="D33" t="n">
-        <v>11.04948515062188</v>
+        <v>10.40393541318339</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>56.24402369698061</v>
+        <v>57.81570961737624</v>
       </c>
       <c r="D34" t="n">
-        <v>12.21133074632122</v>
+        <v>11.60877356556132</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.83401147317825</v>
+        <v>60.2046596351796</v>
       </c>
       <c r="D35" t="n">
-        <v>9.895112687721703</v>
+        <v>11.08099706501416</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.22112073217758</v>
+        <v>57.07344534257686</v>
       </c>
       <c r="D36" t="n">
-        <v>11.00558927374955</v>
+        <v>11.19737008778515</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.1700347267827</v>
+        <v>56.97277066127354</v>
       </c>
       <c r="D37" t="n">
-        <v>11.65266831140682</v>
+        <v>13.30571096340557</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.66891734497999</v>
+        <v>55.3717858446406</v>
       </c>
       <c r="D38" t="n">
-        <v>9.471963192363996</v>
+        <v>12.39909326264761</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.97898529576991</v>
+        <v>52.41123945031024</v>
       </c>
       <c r="D39" t="n">
-        <v>11.7297199082199</v>
+        <v>10.67553747662675</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.76582119678651</v>
+        <v>53.84894359028026</v>
       </c>
       <c r="D40" t="n">
-        <v>10.97377799925415</v>
+        <v>11.03457261276852</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>53.27382750646141</v>
+        <v>50.88165134150043</v>
       </c>
       <c r="D41" t="n">
-        <v>11.28181115444761</v>
+        <v>11.80604326436009</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.95977714159073</v>
+        <v>52.35452776280763</v>
       </c>
       <c r="D42" t="n">
-        <v>11.54380731899813</v>
+        <v>10.22622435290018</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.44377820251049</v>
+        <v>48.52222044511895</v>
       </c>
       <c r="D43" t="n">
-        <v>10.82120453743262</v>
+        <v>9.569099939811592</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.89387393582143</v>
+        <v>47.80750691562414</v>
       </c>
       <c r="D44" t="n">
-        <v>12.30638887833075</v>
+        <v>11.60577974720938</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.21766205090795</v>
+        <v>46.31846968436541</v>
       </c>
       <c r="D45" t="n">
-        <v>11.27134165962379</v>
+        <v>11.6198729637765</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.55139070704939</v>
+        <v>47.10540086638872</v>
       </c>
       <c r="D46" t="n">
-        <v>10.71129614341884</v>
+        <v>10.22192355005946</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.79121996864887</v>
+        <v>45.5189795519308</v>
       </c>
       <c r="D47" t="n">
-        <v>10.0917160236853</v>
+        <v>10.37233412674752</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>45.35169421480228</v>
+        <v>44.27404263512315</v>
       </c>
       <c r="D48" t="n">
-        <v>11.30193841477951</v>
+        <v>10.82451793599352</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.21442217815124</v>
+        <v>42.92546603641885</v>
       </c>
       <c r="D49" t="n">
-        <v>10.19292118375158</v>
+        <v>10.82935449420829</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.16936702212902</v>
+        <v>43.45531976812691</v>
       </c>
       <c r="D50" t="n">
-        <v>11.55564236065581</v>
+        <v>10.801229565422</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.59737528180205</v>
+        <v>40.56245864141044</v>
       </c>
       <c r="D51" t="n">
-        <v>10.94138268026093</v>
+        <v>12.05926339353989</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.72800711361074</v>
+        <v>41.73837999833206</v>
       </c>
       <c r="D52" t="n">
-        <v>10.7624915894605</v>
+        <v>11.69673748873877</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.81904034714832</v>
+        <v>37.36961779839638</v>
       </c>
       <c r="D53" t="n">
-        <v>11.06844147050404</v>
+        <v>12.01025597520424</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.77995838030625</v>
+        <v>37.80945444544372</v>
       </c>
       <c r="D54" t="n">
-        <v>10.65525137180682</v>
+        <v>11.06218362034507</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.46200197135246</v>
+        <v>36.23131377369639</v>
       </c>
       <c r="D55" t="n">
-        <v>11.34390282647029</v>
+        <v>11.42948097266245</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.71819885458829</v>
+        <v>34.99341647815081</v>
       </c>
       <c r="D56" t="n">
-        <v>13.0146829594242</v>
+        <v>11.53050579840694</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.36636298017473</v>
+        <v>34.60211917592673</v>
       </c>
       <c r="D57" t="n">
-        <v>9.644947223972871</v>
+        <v>11.33881967207143</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.78215217363503</v>
+        <v>34.02640463793492</v>
       </c>
       <c r="D58" t="n">
-        <v>11.49507397171303</v>
+        <v>11.01383116734015</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>34.40652459459329</v>
+        <v>33.08513794813464</v>
       </c>
       <c r="D59" t="n">
-        <v>9.561377106077558</v>
+        <v>10.01697843775091</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.56835204153438</v>
+        <v>33.04054082515702</v>
       </c>
       <c r="D60" t="n">
-        <v>12.08787459756291</v>
+        <v>9.908703737673308</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.92485635097484</v>
+        <v>30.7371561295666</v>
       </c>
       <c r="D61" t="n">
-        <v>12.02134961159863</v>
+        <v>10.66920986865267</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.00502611066607</v>
+        <v>31.19777103840802</v>
       </c>
       <c r="D62" t="n">
-        <v>10.23533928382919</v>
+        <v>9.32656189910516</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.84336160176726</v>
+        <v>27.81633011021834</v>
       </c>
       <c r="D63" t="n">
-        <v>11.28056477499966</v>
+        <v>11.51338487594814</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.07913386851685</v>
+        <v>26.2536788486339</v>
       </c>
       <c r="D64" t="n">
-        <v>10.10119968040093</v>
+        <v>9.597728989214193</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.71893725104795</v>
+        <v>27.0965663469943</v>
       </c>
       <c r="D65" t="n">
-        <v>10.75088515089739</v>
+        <v>10.77624028628424</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.86499650901848</v>
+        <v>25.30372992434726</v>
       </c>
       <c r="D66" t="n">
-        <v>11.74883842174499</v>
+        <v>10.42819700868146</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>23.3567706247888</v>
+        <v>24.13788261128122</v>
       </c>
       <c r="D67" t="n">
-        <v>11.20682251171358</v>
+        <v>10.61994100933649</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.91038254615082</v>
+        <v>23.90490103893199</v>
       </c>
       <c r="D68" t="n">
-        <v>10.61729014127599</v>
+        <v>11.53825372871443</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.73029623831932</v>
+        <v>23.82695449079623</v>
       </c>
       <c r="D69" t="n">
-        <v>10.34437407900209</v>
+        <v>9.97056225816314</v>
       </c>
     </row>
   </sheetData>
